--- a/public/xcelTemplates/ProductsTemplate.xlsx
+++ b/public/xcelTemplates/ProductsTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.stark/ReactJs Projects/tinatett-pos/src/assets/xcelTemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.stark/ReactJs Projects/tinatett-pos/public/xcelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D4661-2720-2F4A-B725-04867BE27261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBB2AB-B878-7740-A541-C8C114086D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{94BC3CB1-B96D-BB4A-9CF2-2C7A72E9C1E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RETAIL_PRICE</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Sugar</t>
+  </si>
+  <si>
+    <t>IS_TINATETT_PRODUCT</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF3444D-73FC-4443-A682-5BEC5F3155A8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,9 +423,11 @@
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -435,8 +443,11 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -451,6 +462,9 @@
       </c>
       <c r="E2">
         <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
